--- a/FlightGUI Test/Default.xlsx
+++ b/FlightGUI Test/Default.xlsx
@@ -247,10 +247,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -557,8 +557,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.1484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="9.1484375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -580,7 +580,7 @@
       <c s="2" t="s">
         <v>10</v>
       </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -591,7 +591,7 @@
       <c s="2" t="s">
         <v>3</v>
       </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -602,7 +602,7 @@
       <c s="2" t="s">
         <v>4</v>
       </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>1</v>
       </c>
     </row>
